--- a/EG1B.xlsx
+++ b/EG1B.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="63">
   <si>
     <t/>
   </si>
   <si>
-    <t>20096590</t>
-  </si>
-  <si>
-    <t>SEDAAP MIE SOTO 5'S</t>
+    <t>20104155</t>
+  </si>
+  <si>
+    <t>NISSIN HOT CARBO 120</t>
   </si>
   <si>
     <t>EG1B</t>
@@ -31,184 +31,175 @@
     <t>RT,(E-1B)</t>
   </si>
   <si>
-    <t>20131690</t>
-  </si>
-  <si>
-    <t>SEDAAP MIE AYM JRT77</t>
+    <t>20101747</t>
+  </si>
+  <si>
+    <t>INDOMI SBLAK HOT/J75</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>10023790</t>
-  </si>
-  <si>
-    <t>SEDAAP MIE AYM BWG70</t>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20138358</t>
+  </si>
+  <si>
+    <t>INDOMI NYEMK B/LDS80</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>20084444</t>
-  </si>
-  <si>
-    <t>SUKSES ISI2 A.KCP129</t>
+    <t>10007606</t>
+  </si>
+  <si>
+    <t>ABC MIE GULAI PDS.70</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>20062365</t>
-  </si>
-  <si>
-    <t>SUKSES ISI2 A/KRM133</t>
+    <t>10022534</t>
+  </si>
+  <si>
+    <t>ABC KCP MNS PCH685G</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>20127764</t>
-  </si>
-  <si>
-    <t>N/SHIM STIR FRY 131</t>
-  </si>
-  <si>
-    <t>20138170</t>
-  </si>
-  <si>
-    <t>N/SHIM SPCY CHK 120G</t>
-  </si>
-  <si>
-    <t>20032880</t>
-  </si>
-  <si>
-    <t>NUTRI PDG.SUSU MG170</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20031907</t>
-  </si>
-  <si>
-    <t>NUTRI.J/AR PD.CKL 45</t>
-  </si>
-  <si>
-    <t>20043381</t>
-  </si>
-  <si>
-    <t>NUTRI/J PUDNG STR145</t>
-  </si>
-  <si>
-    <t>10036561</t>
-  </si>
-  <si>
-    <t>MAYA SRDN TMTO 155G</t>
+    <t>20054589</t>
+  </si>
+  <si>
+    <t>3SAPI KRIMER 490G</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>10003683</t>
-  </si>
-  <si>
-    <t>MAYA SRDN TM&amp;CHL 155</t>
+    <t>20072194</t>
+  </si>
+  <si>
+    <t>MH MAITOS S.BLDO 140</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20116675</t>
+  </si>
+  <si>
+    <t>CHTATO LITE NORI 115</t>
+  </si>
+  <si>
+    <t>RT,(E-14H)</t>
+  </si>
+  <si>
+    <t>20116112</t>
+  </si>
+  <si>
+    <t>MAXICORN BBQ 140G</t>
+  </si>
+  <si>
+    <t>20104728</t>
+  </si>
+  <si>
+    <t>CHIMI KRP.UB JG.BK41</t>
+  </si>
+  <si>
+    <t>20138228</t>
+  </si>
+  <si>
+    <t>LAYS RUMPUT LAUT 64G</t>
+  </si>
+  <si>
+    <t>20114756</t>
+  </si>
+  <si>
+    <t>GURIBEE BBQ BLDO 65G</t>
+  </si>
+  <si>
+    <t>10000753</t>
+  </si>
+  <si>
+    <t>TARO SNACK SEAWED 32</t>
+  </si>
+  <si>
+    <t>20045104</t>
+  </si>
+  <si>
+    <t>QTELA TEMPE CABE/R55</t>
+  </si>
+  <si>
+    <t>20124895</t>
+  </si>
+  <si>
+    <t>G/T COKIES CHOCDIP71</t>
+  </si>
+  <si>
+    <t>10035165</t>
+  </si>
+  <si>
+    <t>OREO ORIGINAL 105G</t>
+  </si>
+  <si>
+    <t>20057475</t>
+  </si>
+  <si>
+    <t>SERENA TOGO CKLT 128</t>
+  </si>
+  <si>
+    <t>20048791</t>
+  </si>
+  <si>
+    <t>OREO MINI VANLA 58.4</t>
+  </si>
+  <si>
+    <t>20098348</t>
+  </si>
+  <si>
+    <t>REBO KUACI ORIGNL120</t>
+  </si>
+  <si>
+    <t>20093909</t>
+  </si>
+  <si>
+    <t>REBO KUACI MILK 120</t>
+  </si>
+  <si>
+    <t>20133506</t>
+  </si>
+  <si>
+    <t>DELFI KRICE SWET64.8</t>
+  </si>
+  <si>
+    <t>20133507</t>
+  </si>
+  <si>
+    <t>DELFI KRICE SWD 47.4</t>
+  </si>
+  <si>
+    <t>20065180</t>
+  </si>
+  <si>
+    <t>GLICO PEJOY CHO 30G</t>
+  </si>
+  <si>
+    <t>20135539</t>
+  </si>
+  <si>
+    <t>MR.POTATO ORGINAL85G</t>
+  </si>
+  <si>
+    <t>20136007</t>
+  </si>
+  <si>
+    <t>MR.POTATO BBQ 85G</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>10036957</t>
-  </si>
-  <si>
-    <t>HAPPYTOS CHIP HJU140</t>
-  </si>
-  <si>
-    <t>20021029</t>
-  </si>
-  <si>
-    <t>QTELA KRPK BLDO 175G</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>20092857</t>
-  </si>
-  <si>
-    <t>STT FRENCH FRIES 130</t>
-  </si>
-  <si>
-    <t>10029724</t>
-  </si>
-  <si>
-    <t>GARUDA KCNG ATOM 100</t>
-  </si>
-  <si>
-    <t>10000341</t>
-  </si>
-  <si>
-    <t>DUA KELINCI KCG 370G</t>
-  </si>
-  <si>
-    <t>20104942</t>
-  </si>
-  <si>
-    <t>CHIKI BALL CHOCO 50G</t>
-  </si>
-  <si>
-    <t>20055205</t>
-  </si>
-  <si>
-    <t>TARO SEAWEED 62G</t>
-  </si>
-  <si>
-    <t>20138241</t>
-  </si>
-  <si>
-    <t>CHEETOS KEJU 120G</t>
-  </si>
-  <si>
-    <t>20103271</t>
-  </si>
-  <si>
-    <t>CHOCODRINK BLG 6'S</t>
-  </si>
-  <si>
-    <t>20069696</t>
-  </si>
-  <si>
-    <t>OISHI POPCRN KRML100</t>
-  </si>
-  <si>
-    <t>20069844</t>
-  </si>
-  <si>
-    <t>OISHI POPCRN COK 100</t>
-  </si>
-  <si>
-    <t>20097777</t>
-  </si>
-  <si>
-    <t>KRISBEE PLW CHO 100G</t>
-  </si>
-  <si>
-    <t>RT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20137570</t>
-  </si>
-  <si>
-    <t>NABATI BIG RL CHS48G</t>
-  </si>
-  <si>
-    <t>20115505</t>
-  </si>
-  <si>
-    <t>DILAN CHOCO CRML 95G</t>
   </si>
 </sst>
 </file>
@@ -601,14 +592,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -668,15 +659,15 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -685,18 +676,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -705,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
@@ -713,10 +704,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -725,27 +716,27 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -753,10 +744,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -765,18 +756,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -785,18 +776,18 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -805,18 +796,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -825,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -833,42 +824,42 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,13 +873,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,50 +893,50 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -953,19 +944,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -973,59 +964,59 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1033,19 +1024,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -1053,19 +1044,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -1073,19 +1064,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -1093,62 +1084,42 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
